--- a/project1.xlsx
+++ b/project1.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1！中山大学大三第一学期\计网实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\计网实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="7403" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>客户机端口号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -271,6 +274,182 @@
   </si>
   <si>
     <t>工作过程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户机向服务器发起连接请求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器响应请求，释放TCP连接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户机请求获取资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP报文格式分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>源IP地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>源端口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的IP地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的端口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>222.200.180.18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.191.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Arg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service ready for new user(220)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileZilla Server 0.9.32 beta</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备好为新用户提供服务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp服务已经就绪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP指令和响应过程分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令/响应</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求用户密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求断开连接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接断开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP传送过程中的报文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所包括的报文序号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制连接的建立</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据连接的建立</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP数据传送</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP指令传送和响应</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据连接的释放</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制连接的释放</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -502,21 +681,6 @@
       <left style="dashed">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="dashed">
         <color auto="1"/>
@@ -534,47 +698,6 @@
       </top>
       <bottom style="dashed">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +781,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,7 +916,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,9 +926,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,118 +942,181 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1100,166 +1403,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="4" width="15.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="24.86328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="4"/>
+    <col min="4" max="4" width="15.53125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.53125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.149999999999999" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="8" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="8" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="8" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="8" t="s">
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="8" t="s">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1281,92 +1584,423 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="G8" sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="9.06640625" style="48"/>
+    <col min="2" max="2" width="12.06640625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="48"/>
+    <col min="4" max="4" width="0.59765625" style="48" customWidth="1"/>
+    <col min="5" max="6" width="9.06640625" style="48" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1328125" style="48" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="45">
+        <v>15</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="50"/>
+      <c r="B4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="45">
+        <v>145</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="42">
+        <v>29</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="52"/>
+      <c r="B6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="53">
+        <v>180</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="53">
+        <v>43</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="52"/>
+      <c r="B8" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="53">
+        <v>195</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.73046875" style="66" customWidth="1"/>
+    <col min="2" max="2" width="19.06640625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="62"/>
+    <col min="4" max="4" width="7" style="62" customWidth="1"/>
+    <col min="5" max="6" width="9.06640625" style="62" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" style="62" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="58" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="62">
+        <v>8</v>
+      </c>
+      <c r="C3" s="64">
+        <v>51422</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="62">
+        <v>163</v>
+      </c>
+      <c r="C4" s="64">
+        <v>51446</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="62">
+        <v>33</v>
+      </c>
+      <c r="C5" s="64">
+        <v>51446</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="62">
+        <v>53</v>
+      </c>
+      <c r="C6" s="64">
+        <v>51466</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="62">
+        <v>52</v>
+      </c>
+      <c r="C7" s="64">
+        <v>51465</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="62">
+        <v>53</v>
+      </c>
+      <c r="C8" s="64">
+        <v>51466</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.86328125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="12">
         <v>80</v>
       </c>
-      <c r="B3" s="17">
-        <v>56362</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="B3" s="12">
+        <v>63825</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="12">
         <v>80</v>
       </c>
-      <c r="B4" s="17">
-        <v>56498</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="B4" s="12">
+        <v>63826</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="12">
         <v>80</v>
       </c>
-      <c r="B5" s="17">
-        <v>56365</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="B5" s="12">
+        <v>63828</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="12">
         <v>80</v>
       </c>
-      <c r="B6" s="17">
-        <v>56223</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="B6" s="12">
+        <v>63830</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="12">
         <v>80</v>
       </c>
-      <c r="B7" s="17">
-        <v>56363</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="B7" s="12">
+        <v>63831</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="13">
         <v>80</v>
       </c>
-      <c r="B8" s="19">
-        <v>56544</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>63829</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1377,7 +2011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1385,148 +2019,148 @@
       <selection activeCell="C9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="12.109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="26.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" style="4"/>
+    <col min="6" max="6" width="12.1328125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.86328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.149999999999999" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>200</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1544,117 +2178,272 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="29" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="29"/>
-    <col min="5" max="5" width="7.44140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="1.5546875" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="29"/>
+    <col min="1" max="1" width="15.46484375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="13.53125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="15"/>
+    <col min="4" max="4" width="6.19921875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.53125" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.9296875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.86328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="20">
+        <v>63825</v>
+      </c>
+      <c r="B3" s="21">
+        <v>80</v>
+      </c>
+      <c r="C3" s="45">
+        <v>28</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="20">
+        <v>63826</v>
+      </c>
+      <c r="B4" s="21">
+        <v>80</v>
+      </c>
+      <c r="C4" s="42">
+        <v>29</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="20">
+        <v>63828</v>
+      </c>
+      <c r="B5" s="21">
+        <v>80</v>
+      </c>
+      <c r="C5" s="45">
+        <v>31</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="20">
+        <v>63830</v>
+      </c>
+      <c r="B6" s="24">
+        <v>80</v>
+      </c>
+      <c r="C6" s="42">
+        <v>33</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="20">
+        <v>63831</v>
+      </c>
+      <c r="B7" s="24">
+        <v>80</v>
+      </c>
+      <c r="C7" s="42">
+        <v>34</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="25">
+        <v>63829</v>
+      </c>
+      <c r="B8" s="26">
+        <v>80</v>
+      </c>
+      <c r="C8" s="43">
+        <v>32</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="27" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="28.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.149999999999999" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="36">
+        <v>21</v>
+      </c>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="37">
+        <v>51185</v>
+      </c>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
